--- a/TestResults/CountryPut.xlsx
+++ b/TestResults/CountryPut.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -45,6 +45,344 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Verify that the Country details are created successfully updated when the intialDialingCd is passed as empty/ null in the JSON request</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"country":
+	{
+		"countryNumericCode":"7865",
+		"countryCode":"YN",
+		"threeCharacterCountryCode":"KNY",
+		"independentFlag":"Y",
+		"postalFormatDescription":"xxxx-xxxx",
+		"postalFlag":"Y",
+		"postalLength":"9",
+		"firstWorkWeekDayName":"Monday",
+		"lastWorkWeekDayName":"Friday",
+		"weekendFirstDayName":"Saturday",
+		"internetDomainName":".us",
+		"dependentRelationshipId":"3519318133844723686",
+		"dependentCountryCode":"511642362449307022",
+		"internationalDialingCode":"",
+		"landPhoneMaximumLength":9,
+		"landPhoneMinimumLength":9,
+		"mobilePhoneMaximumLength":9,
+		"mobilePhoneMinimumLength":9,
+		"phoneNumberFormatPattern":"99999",
+		"effectiveDate":"2022-08-19",
+		"expirationDate":"2022-09-30",
+		"currencies":
+		[
+			{
+				"currencyNumericCode":"840",
+				"currencyCode":"Tes",
+				"minorUnitCode":"2",
+				"moneyFormatDescription":"#,
+				###.##",
+				"effectiveDate":"2022-08-30",
+				"expirationDate":"2022-10-30"
+			}
+		],
+		"geopoliticalUnitOfMeasures":
+		[
+			{
+				"uomTypeCode":"Test_UOMCD",
+				"effectiveDate":"2022-08-14",
+				"expirationDate":"2022-09-20"
+			}
+		],
+		"geopoliticalHolidays":
+		[
+			{
+				"holidayName":"TestHDName",
+				"effectiveDate":"2022-09-14",
+				"expirationDate":"2022-10-14"
+			}
+		],
+		"geopoliticalAffiliations":
+		[
+			{
+				"affiliationTypeCode":"Test",
+				"effectiveDate":"2022-05-14",
+				"expirationDate":"2022-05-20"
+			}
+		],
+		"translationGeopoliticals":
+		[
+			{
+				"languageCode":"ZZZ",
+				"scriptCode":"Ram",
+				"translatedName":"Guam",
+				"versionNumber":"1",
+				"versionDate":"2020-07-30",
+				"effectiveDate":"2020-08-19",
+				"expirationDate":"9999-12-31"
+			}
+		],
+		"geopoliticalType":
+		{
+			"geopoliticalTypeName":"GeoTest"
+		}
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_countryNumberCd:7865
+Input_countryCd:YN
+Input_threeCharCountryCd:KNY
+Input_independentFlag:Y
+Input_postalFormatDescription:xxxx-xxxx
+Input_postalFlag:Y
+Input_postalLengthNumber:9
+Input_firstWorkWeekDayName:Monday
+Input_lastWorkWeekDayName:Friday
+Input_weekendFirstDayName:Saturday
+Input_internetDomainName:.us
+Input_dependentRelationshipId:3519318133844723686
+Input_dependentCountryCd:511642362449307022
+Input_intialDialingCd:
+Input_landPhMaxLthNbr:9
+Input_landPhMinLthNbr:9
+Input_moblPhMaxLthNbr:9
+Input_moblPhMinLthNbr:9
+Input_phoneNumberFormatPattern:99999
+Input_countryEffectiveDate:2022-08-19
+Input_countryExpirationDate:2022-09-30
+Input_LastUpdateUserName:Automation
+Input_currencyNumberCd:840
+Input_currencyCd:Tes
+Input_minorUnitCd:2
+Input_moneyFormatDescription:#,###.##
+Input_currenciesEffectiveDate:2022-08-30
+Input_currenciesExpirationDate:2022-10-30
+Input_uomTypeCd:Test_UOMCD
+Input_geopoliticalUnitOfMeasuresEffectiveDate:2022-08-14
+Input_geopoliticalUnitOfMeasuresExpirationDate:2022-09-20
+Input_holidayName:TestHDName
+Input_geopoliticalHolidaysEffectiveDate:2022-09-14
+Input_geopoliticalHolidaysExpirationDate:2022-10-14
+Input_affilTypeCd:Test
+Input_geopoliticalAffiliationsEffectiveDate:2022-05-14
+Input_geopoliticalAffiliationsExpirationDate:2022-05-20
+Input_translationGeopoliticalsLanguageCd:ZZZ
+Input_translationGeopoliticalsScriptCd:Ram
+Input_translationName:Guam
+Input_versionNumber:1
+Input_versionDate:2020-07-30
+Input_translationGeopoliticalsEffectiveDate:2020-08-19
+Input_translationGeopoliticalsExpirationDate:9999-12-31
+Input_geopoliticalTypeName:GeoTest
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Db_countryNumberCd:7865
+Db_countryCd:YN
+Db_threeCharCountryCd:KNY
+Db_independentFlag:Y
+Db_postalFormatDescription:xxxx-xxxx
+Db_postalFlag:Y
+Db_postalLengthNumber:9
+Db_firstWorkWeekDayName:Monday
+Db_lastWorkWeekDayName:Friday
+Db_weekendFirstDayName:Saturday
+Db_internetDomainName:.us
+Db_dependentRelationshipId:3519318133844723686
+Db_dependentCountryCd:511642362449307022
+Db_intialDialingCd:
+Db_landPhMaxLthNbr:9
+Db_landPhMinLthNbr:9
+Db_moblPhMaxLthNbr:9
+Db_moblPhMinLthNbr:9
+Db_phoneNumberFormatPattern:99999
+Db_countryEffectiveDate:2022-08-19
+Db_countryExpirationDate:2022-09-30
+Db_LastUpdateUserName:Automation
+Db_currencyNumberCd:840
+Db_currencyCd:Tes
+Db_minorUnitCd:2
+Db_moneyFormatDescription:#,###.##
+Db_currenciesEffectiveDate:2022-08-30
+Db_currenciesExpirationDate:2022-10-30
+Db_uomTypeCd:Test_UOMCD
+Db_geopoliticalUnitOfMeasuresEffectiveDate:2022-08-14
+Db_geopoliticalUnitOfMeasuresExpirationDate:2022-09-20
+Db_holidayName:TestHDName
+Db_geopoliticalHolidaysEffectiveDate:2022-09-14
+Db_geopoliticalHolidaysExpirationDate:2022-10-14
+Db_affilTypeCd:Test
+Db_geopoliticalAffiliationsEffectiveDate:2022-05-14
+Db_geopoliticalAffiliationsExpirationDate:2022-05-20
+Db_translationGeopoliticalsLanguageCd:ZZZ
+Db_translationGeopoliticalsScriptCd:Ram
+Db_translationName:Guam
+Db_versionNumber:1
+Db_versionDate:2020-07-30
+Db_translationGeopoliticalsEffectiveDate:2020-08-19
+Db_translationGeopoliticalsExpirationDate:9999-12-31
+Db_geopoliticalTypeName:GeoTest
+</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"f241217c-9610-4096-82cd-88186747446e",
+		"timeStamp":"2020-06-29 08:44:56",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"Country Details successfully updated with geopoliticalId:7886394310148935545",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"7886394310148935545"
+	}
+}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TC_68</t>
+  </si>
+  <si>
+    <t>Verify that the Country details are created successfully updated when the intialDialingCd attribute is not passed in the JSON request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"country":
+	{
+		"countryNumericCode":"7865",
+		"countryCode":"YN",
+		"threeCharacterCountryCode":"KNY",
+		"independentFlag":"Y",
+		"postalFormatDescription":"xxxx-xxxx",
+		"postalFlag":"Y",
+		"postalLength":"9",
+		"firstWorkWeekDayName":"Monday",
+		"lastWorkWeekDayName":"Friday",
+		"weekendFirstDayName":"Saturday",
+		"internetDomainName":".us",
+		"dependentRelationshipId":"3519318133844723686",
+		"dependentCountryCode":"511642362449307022",
+		"landPhoneMaximumLength":9,
+		"landPhoneMinimumLength":9,
+		"mobilePhoneMaximumLength":9,
+		"mobilePhoneMinimumLength":9,
+		"phoneNumberFormatPattern":"99999",
+		"effectiveDate":"2022-08-19",
+		"expirationDate":"2022-09-30",
+		"currencies":
+		[
+			{
+				"currencyNumericCode":"840",
+				"currencyCode":"Tes",
+				"minorUnitCode":"2",
+				"moneyFormatDescription":"#,
+				###.##",
+				"effectiveDate":"2022-08-30",
+				"expirationDate":"2022-10-30"
+			}
+		],
+		"geopoliticalUnitOfMeasures":
+		[
+			{
+				"uomTypeCode":"Test_UOMCD",
+				"effectiveDate":"2022-08-14",
+				"expirationDate":"2022-09-20"
+			}
+		],
+		"geopoliticalHolidays":
+		[
+			{
+				"holidayName":"TestHDName",
+				"effectiveDate":"2022-09-14",
+				"expirationDate":"2022-10-14"
+			}
+		],
+		"geopoliticalAffiliations":
+		[
+			{
+				"affiliationTypeCode":"Test",
+				"effectiveDate":"2022-05-14",
+				"expirationDate":"2022-05-20"
+			}
+		],
+		"translationGeopoliticals":
+		[
+			{
+				"languageCode":"ZZZ",
+				"scriptCode":"Ram",
+				"translatedName":"Guam",
+				"versionNumber":"1",
+				"versionDate":"2020-07-30",
+				"effectiveDate":"2020-08-19",
+				"expirationDate":"9999-12-31"
+			}
+		],
+		"geopoliticalType":
+		{
+			"geopoliticalTypeName":"GeoTest"
+		}
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"transactionId":"14cc29f2-7225-4326-971d-66675db86311",
+		"timeStamp":"2020-06-29 08:45:32",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"Country Details successfully updated with geopoliticalId:7886394310148935545",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"7886394310148935545"
+	}
+}</t>
   </si>
 </sst>
 </file>
@@ -52,7 +390,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -65,6 +403,116 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="4">
@@ -85,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -111,14 +559,98 @@
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -132,17 +664,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.5859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.24609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.74609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.61328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.34375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="10.24609375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="15.37890625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.29296875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.5859375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.82421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -180,6 +712,78 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="L2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="L3"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
